--- a/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,582 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r576043959-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>11676687</t>
+  </si>
+  <si>
+    <t>576043959</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>This location is going a great job.</t>
+  </si>
+  <si>
+    <t>Over the last few years I have stayed mostly at the La Quinta next to this hotel but the noise in the La Qunita finally drove me to try someplace else.  There are a few guys on our construction crew staying here and based on what they said, I figured I would give it a try.I was happy with everything.  The staff are nice, the rooms are clean, my room was quiet and I slept well.  The breakfast has a good selection and some nights they have complimentary food and beverages at dinner time.  That's a first for me at any hotel.  You need to be there when they start because it's very popular and is soon picked through.The room seemed kind of small but is was fine for just me.  I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Over the last few years I have stayed mostly at the La Quinta next to this hotel but the noise in the La Qunita finally drove me to try someplace else.  There are a few guys on our construction crew staying here and based on what they said, I figured I would give it a try.I was happy with everything.  The staff are nice, the rooms are clean, my room was quiet and I slept well.  The breakfast has a good selection and some nights they have complimentary food and beverages at dinner time.  That's a first for me at any hotel.  You need to be there when they start because it's very popular and is soon picked through.The room seemed kind of small but is was fine for just me.  I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r573953774-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>573953774</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Keep looking</t>
+  </si>
+  <si>
+    <t>Room wasn’t restocked with regular coffee or shampoo and conditioner. They didn’t see that as much of a problem, just shrugged when told of it. They are not covering the basics in the rooms right now. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Room wasn’t restocked with regular coffee or shampoo and conditioner. They didn’t see that as much of a problem, just shrugged when told of it. They are not covering the basics in the rooms right now. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r572339562-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>572339562</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great Bang For Your Buck!</t>
+  </si>
+  <si>
+    <t>Wow, Sleep Inn definitely didn’t diappoint me! I was not expecting this hotel to be a wonderful as it was. The location was good, but construction made getting there slightly complicated. When we arrived the gentleman at the front desk was very friendly and speedy with check in. He even signed me up to get late check out. One night when i needed a fork he put a whole tray of utensils out. The room was so spacious, very clean and lightly was adequate. Our view was pretty strange only because our window view was of the lobby (which was also kind of funny). The bathroom was probably my favorite part. The shower was real clean and modern. Water was hot and worked well! Overall my stay here was great and I enjoyed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Wow, Sleep Inn definitely didn’t diappoint me! I was not expecting this hotel to be a wonderful as it was. The location was good, but construction made getting there slightly complicated. When we arrived the gentleman at the front desk was very friendly and speedy with check in. He even signed me up to get late check out. One night when i needed a fork he put a whole tray of utensils out. The room was so spacious, very clean and lightly was adequate. Our view was pretty strange only because our window view was of the lobby (which was also kind of funny). The bathroom was probably my favorite part. The shower was real clean and modern. Water was hot and worked well! Overall my stay here was great and I enjoyed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r567995480-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>567995480</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>My girlfriend and I came to Dallas for a weekend getaway and concert for my birthday. Very friendly staff. The room was clean and well attended. The breakfast was delicious. The location is very close to all the entertainment districts. We will stay here again!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r562758031-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>562758031</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>Being a beautiful, new hotel with a very attentive staff can only be rated so high when the mattress is so firm that I barely slept.  I woke up several times during the night in back pain due to the mattress.  I am a frequent user of Choice Hotels and this was the first time it ever happened to me.  Other than hardly sleeping, the hotel was clean and very attractive.  The hotel staff was friendly.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r561121531-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>561121531</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>AWFUL</t>
+  </si>
+  <si>
+    <t>The WiFi went out and was not that reliable.  The TV stopped working at midnight.  The breakfast is awful.  This is my second visit to this hotel.  I was one of their first guests and said I would come back after the first experience, but this was too much for a business traveler.  The Customer Service does not help matters at all.  They take guests for granted.  I interacted with 3 different ones and they all suck.  This hotel has great hope and a good vibe, but I cannot say one good thing about this place as it is being ran.  The check in process for a Diamond member was 10 minutes.  They can only get better.  If it gets worse, bankruptcy.   Very noisy hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The WiFi went out and was not that reliable.  The TV stopped working at midnight.  The breakfast is awful.  This is my second visit to this hotel.  I was one of their first guests and said I would come back after the first experience, but this was too much for a business traveler.  The Customer Service does not help matters at all.  They take guests for granted.  I interacted with 3 different ones and they all suck.  This hotel has great hope and a good vibe, but I cannot say one good thing about this place as it is being ran.  The check in process for a Diamond member was 10 minutes.  They can only get better.  If it gets worse, bankruptcy.   Very noisy hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r554951409-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>554951409</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to Love Field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel, easy access to Love Field. Staff was friendly during check-in and checkout. Bed was comfortable. Bathroom was small and sliding shower door wouldn't stay closed. Would stay here again if/when we need easy access to airport. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r552793369-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>552793369</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and clean, easy booking and a polite staff! Decent priced. The bed was very comfortable and the breakfast was awesome! Good biscuits and gravy and real eggs. Felt very safe here, and will stay again when we come back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r549575644-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>549575644</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Basic, clean hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night before flying out. It was all I needed- clean and convenient. Refrigerator and microwave in room, morning breakfast (that I can’t speak to because I left too early), very friendly and helpful staff. My only minor complaint was that the airport shuttle didn’t start until 7a, which is not something I recall reading. I booked through hotels.com and the front desk person said that this information might not have been on their site (although I swear I looked at the propety’s own site, I easily could have missed it). Can ride to the airport was $20 for one person, which isn’t great but also isn’t terrible, especially considering it was 430a and there surely wasn’t an Uber or Lyft to be found. So if you don’t care about bells and whistles, and just want a clean place to sleep close to Love Field, this is a safe bet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night before flying out. It was all I needed- clean and convenient. Refrigerator and microwave in room, morning breakfast (that I can’t speak to because I left too early), very friendly and helpful staff. My only minor complaint was that the airport shuttle didn’t start until 7a, which is not something I recall reading. I booked through hotels.com and the front desk person said that this information might not have been on their site (although I swear I looked at the propety’s own site, I easily could have missed it). Can ride to the airport was $20 for one person, which isn’t great but also isn’t terrible, especially considering it was 430a and there surely wasn’t an Uber or Lyft to be found. So if you don’t care about bells and whistles, and just want a clean place to sleep close to Love Field, this is a safe bet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532952-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539532952</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>This hotel is Beautiful from the exterior to the interior! I love the new multi color sign and purple accents outside! When you walk in you are greeted with a smile and it looks and smells clean. My room has 2 beds that were freshly made and my room waa spotless. I really enjoyed the interior courtyard where business associates and I were able to sit and talk about the day. Thank you so much for such a wonderful stay sleep inn!! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is Beautiful from the exterior to the interior! I love the new multi color sign and purple accents outside! When you walk in you are greeted with a smile and it looks and smells clean. My room has 2 beds that were freshly made and my room waa spotless. I really enjoyed the interior courtyard where business associates and I were able to sit and talk about the day. Thank you so much for such a wonderful stay sleep inn!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532826-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539532826</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>This place is one of the new prototypes! We really like the sitting area in the courtyard. It's awesome ! Staff is very friendly and breakfast area looks quite inviting ! We happen d to be there in the night of manager reception which was a nice touch. I'll be back !MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>This place is one of the new prototypes! We really like the sitting area in the courtyard. It's awesome ! Staff is very friendly and breakfast area looks quite inviting ! We happen d to be there in the night of manager reception which was a nice touch. I'll be back !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539250504-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539250504</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>We were in Texas on vacation, so very little time was spent in the room. That said, it was SUPER clean, very quiet (even though our room window faced the common area) and the staff were helpful and accommodating.  We had some little issues - the shower door didn't close all the way, causing water to spray onto the floor outside the shower. We also had only decaf coffee packs for our in-room coffee maker. Both tiny issues, and we mentioned them to the staff.  Unfortunately, the person to whom this was mentioned mis-heard me and took the wrong room number down. So it wasn't rectified. Definitely not the fault of the person we spoke to - it was a simple mis-communication.  Other than that, we had a very nice stay there. We are considering returning to Dallas next year and will definitely book our room here!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Texas on vacation, so very little time was spent in the room. That said, it was SUPER clean, very quiet (even though our room window faced the common area) and the staff were helpful and accommodating.  We had some little issues - the shower door didn't close all the way, causing water to spray onto the floor outside the shower. We also had only decaf coffee packs for our in-room coffee maker. Both tiny issues, and we mentioned them to the staff.  Unfortunately, the person to whom this was mentioned mis-heard me and took the wrong room number down. So it wasn't rectified. Definitely not the fault of the person we spoke to - it was a simple mis-communication.  Other than that, we had a very nice stay there. We are considering returning to Dallas next year and will definitely book our room here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r535223384-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>535223384</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Date night</t>
+  </si>
+  <si>
+    <t>We had a free room through Choice and chose this because if its location. The room was clean and the shower was great. The towels were a bit thin. The bed was very comfortable and the room was quiet. The breakfast was not that good. There was no bacon left and only half a biscuit. The sausage was dripping in grease. I would stay here again but probably would skip the breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534463598-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>534463598</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Amazing experience</t>
+  </si>
+  <si>
+    <t>My family and I spent 3 nights at this hotel and it was great. The staff was super friendly and the rooms were impressive for the price. It's a new hotel so you definitely notice how clean it is. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>My family and I spent 3 nights at this hotel and it was great. The staff was super friendly and the rooms were impressive for the price. It's a new hotel so you definitely notice how clean it is. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534327927-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>534327927</t>
+  </si>
+  <si>
+    <t>Clean and Modern</t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay here at the Sleep Inn, I cannot say enough kind things. You can tell that the place was newly renovated. The staff were very accommodating and eager to help!!! The rooms were very clean and the beds were so comfortable, exactly what i needed at the end of my long tourist-y days. One more thing was that their breakfast was really good, didn't have to look elsewhere but my own hotel first thing in the morning. Will definitely be staying again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r526378555-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>526378555</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, shuttle wasn't as advertised</t>
+  </si>
+  <si>
+    <t>We needed a decent room near the airport for an early flight out from Love Field.  We arrived around 6pm and I needed to return my rental car to the airport by the end of the day.  I asked the clerk if the shuttle could pick me up at Avis, but I was informed that the shuttle driver already left for the day.  This was irritating because when we booked the hotel it clearly said the shuttle ran until 8 or 9.  So I had to get an Uber ride back to the hotel. Not a big deal, but it was a little irritating.  The next morning we had an early flight out and went down to eat breakfast early, but not everything was out and the things that were out were not very good.  After 12 days on the road touring Texas, this was by FAR the worst hotel breakfast we had.  At least the shuttle to the airport was on time in the morning and got us to the airport without any issues.The rooms were nice and the price was good, but don't plan on having breakfast here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We needed a decent room near the airport for an early flight out from Love Field.  We arrived around 6pm and I needed to return my rental car to the airport by the end of the day.  I asked the clerk if the shuttle could pick me up at Avis, but I was informed that the shuttle driver already left for the day.  This was irritating because when we booked the hotel it clearly said the shuttle ran until 8 or 9.  So I had to get an Uber ride back to the hotel. Not a big deal, but it was a little irritating.  The next morning we had an early flight out and went down to eat breakfast early, but not everything was out and the things that were out were not very good.  After 12 days on the road touring Texas, this was by FAR the worst hotel breakfast we had.  At least the shuttle to the airport was on time in the morning and got us to the airport without any issues.The rooms were nice and the price was good, but don't plan on having breakfast here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521245616-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>521245616</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>I loved this hotel! It's a new facility in a great location, uptown/downtown are easily accessible. Very clean, which is important, and comfy beds is a definite plus. Highly recommend for anyone looking!! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>I loved this hotel! It's a new facility in a great location, uptown/downtown are easily accessible. Very clean, which is important, and comfy beds is a definite plus. Highly recommend for anyone looking!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521242442-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>521242442</t>
+  </si>
+  <si>
+    <t>Super clean, super convenient, and super affordable!!!</t>
+  </si>
+  <si>
+    <t>My friend and I got a room for the night to be near downtown Dallas- this hotel was SUPER CLEAN, super convenient (we Ubered everywhere from here), and super affordable!! And the staff was so nice! Would HIGHLY recommend staying here!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I got a room for the night to be near downtown Dallas- this hotel was SUPER CLEAN, super convenient (we Ubered everywhere from here), and super affordable!! And the staff was so nice! Would HIGHLY recommend staying here!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r508266387-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>508266387</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Close to Pappasitos &amp; Love Field</t>
+  </si>
+  <si>
+    <t>Ate dinner nearby at Pappasitos (yummy) on Lombardy Lane, then checked in to Sleep Inn for one night before flying out early from Love Field. Room was clean &amp; beds were comfy. Had to leave too early for flights so didn't get to take advantage of the free breakfast. Wish they had something to grab &amp; go (like granola bar or banana) for those who have to leave before breakfast starts, but would stay here again. Staff was friendly, and I liked that it was pretty new.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Ate dinner nearby at Pappasitos (yummy) on Lombardy Lane, then checked in to Sleep Inn for one night before flying out early from Love Field. Room was clean &amp; beds were comfy. Had to leave too early for flights so didn't get to take advantage of the free breakfast. Wish they had something to grab &amp; go (like granola bar or banana) for those who have to leave before breakfast starts, but would stay here again. Staff was friendly, and I liked that it was pretty new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r503014651-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>503014651</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice place to stay. There were clean and spacious rooms, free wifi and breakfast, and convenient parking! We arrived at the hotel extremely late at night and thought we wouldn't have a room but the front desk lady saved our room for us. So grateful for that. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r500159088-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>500159088</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Convenient location to Love Field and Parkland</t>
+  </si>
+  <si>
+    <t>Very nice staff.  This place has all the necessities.  Free wifi, breakfast, microwave and refrigerator.  It also has plenty of charging ports for all your electronics.  Great value and good location.  This is a new location so everything is in great working order.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r496152502-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>496152502</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new hotel </t>
+  </si>
+  <si>
+    <t>Came up to pick up my grandson from love field airport the first hotel I googled turned out way to expensive so we went next door and found this brand new hotel for very reasonable price the rooms are very clean smells good the staff was super nice and it does have free breakfast which has large selection of choices, beds are comfy loved the pillows soft and luxuries, the only letdown was no pool but we went shopping instead lol. Definitely will recommend this hotel it's also so close to Love Field Airport . MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Came up to pick up my grandson from love field airport the first hotel I googled turned out way to expensive so we went next door and found this brand new hotel for very reasonable price the rooms are very clean smells good the staff was super nice and it does have free breakfast which has large selection of choices, beds are comfy loved the pillows soft and luxuries, the only letdown was no pool but we went shopping instead lol. Definitely will recommend this hotel it's also so close to Love Field Airport . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495941027-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>495941027</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Great location, super clean. Hotel is brand new! Great bang for the buck. The free breakfast was delicious, shuttle driver was friendly. Will definitely stay here again! Was perfect for our early morning flight out of love field. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, super clean. Hotel is brand new! Great bang for the buck. The free breakfast was delicious, shuttle driver was friendly. Will definitely stay here again! Was perfect for our early morning flight out of love field. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495764888-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>495764888</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Nice brand new hotel</t>
+  </si>
+  <si>
+    <t>Stayed here a night before a morning flight out of Love Field. The hotel was very nice and a steal for the price(had only been open 40 days when I checked in June 8th), had a nice breakfast, and I also parked my car there for 5 days for cheaper than the airport parking would have cost, my only problem was the lack of outside windows. My room had a view of the lobby area and it was very strange. At times I was having moments of feeling trapped or something lolMoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here a night before a morning flight out of Love Field. The hotel was very nice and a steal for the price(had only been open 40 days when I checked in June 8th), had a nice breakfast, and I also parked my car there for 5 days for cheaper than the airport parking would have cost, my only problem was the lack of outside windows. My room had a view of the lobby area and it was very strange. At times I was having moments of feeling trapped or something lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r487555699-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>487555699</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Brand new Hotel &amp; Close to Love Field</t>
+  </si>
+  <si>
+    <t>Had an early morning flight out of Love Field so decided to stay at this hotel.  Love staying at brand new hotels (I might have been one of the first people to stay in my room).  Had a nice stay in a comfortable bed and grabbed a quick bite to eat in the morning (full hot breakfast which was a plus).  Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Had an early morning flight out of Love Field so decided to stay at this hotel.  Love staying at brand new hotels (I might have been one of the first people to stay in my room).  Had a nice stay in a comfortable bed and grabbed a quick bite to eat in the morning (full hot breakfast which was a plus).  Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r484756854-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>484756854</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>New hotel</t>
+  </si>
+  <si>
+    <t>The location is very convenient. I was traveling through Dallas for work - I felt the hotel was a very good value. Front desk staff was very friendly. New hotel - rooms were a good size. Enjoyed the breakfast. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephanie G, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>The location is very convenient. I was traveling through Dallas for work - I felt the hotel was a very good value. Front desk staff was very friendly. New hotel - rooms were a good size. Enjoyed the breakfast. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r483745394-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>483745394</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>This will be a great location once it is a finished product.  The WiFi was not reliable.  The electricity went out for 15 minutes.  They were unsure of pricing and could not collect points while on this stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Stephanie G, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>This will be a great location once it is a finished product.  The WiFi was not reliable.  The electricity went out for 15 minutes.  They were unsure of pricing and could not collect points while on this stay.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1224,1649 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>EC170131</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Over the last few years I have stayed mostly at the La Quinta next to this hotel but the noise in the La Qunita finally drove me to try someplace else.  There are a few guys on our construction crew staying here and based on what they said, I figured I would give it a try.I was happy with everything.  The staff are nice, the rooms are clean, my room was quiet and I slept well.  The breakfast has a good selection and some nights they have complimentary food and beverages at dinner time.  That's a first for me at any hotel.  You need to be there when they start because it's very popular and is soon picked through.The room seemed kind of small but is was fine for just me.  I'll stay here again.More</t>
   </si>
   <si>
+    <t>Virginia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r573953774-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Room wasn’t restocked with regular coffee or shampoo and conditioner. They didn’t see that as much of a problem, just shrugged when told of it. They are not covering the basics in the rooms right now. More</t>
   </si>
   <si>
+    <t>ChambersKEC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r572339562-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Wow, Sleep Inn definitely didn’t diappoint me! I was not expecting this hotel to be a wonderful as it was. The location was good, but construction made getting there slightly complicated. When we arrived the gentleman at the front desk was very friendly and speedy with check in. He even signed me up to get late check out. One night when i needed a fork he put a whole tray of utensils out. The room was so spacious, very clean and lightly was adequate. Our view was pretty strange only because our window view was of the lobby (which was also kind of funny). The bathroom was probably my favorite part. The shower was real clean and modern. Water was hot and worked well! Overall my stay here was great and I enjoyed.More</t>
   </si>
   <si>
+    <t>Chris W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r567995480-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Angie_Ohio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r562758031-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>rboykins71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r561121531-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>The WiFi went out and was not that reliable.  The TV stopped working at midnight.  The breakfast is awful.  This is my second visit to this hotel.  I was one of their first guests and said I would come back after the first experience, but this was too much for a business traveler.  The Customer Service does not help matters at all.  They take guests for granted.  I interacted with 3 different ones and they all suck.  This hotel has great hope and a good vibe, but I cannot say one good thing about this place as it is being ran.  The check in process for a Diamond member was 10 minutes.  They can only get better.  If it gets worse, bankruptcy.   Very noisy hotel.More</t>
   </si>
   <si>
+    <t>Hillrae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r554951409-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Devin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r552793369-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t xml:space="preserve">Nice and clean, easy booking and a polite staff! Decent priced. The bed was very comfortable and the breakfast was awesome! Good biscuits and gravy and real eggs. Felt very safe here, and will stay again when we come back. </t>
   </si>
   <si>
+    <t>Elizabeth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r549575644-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>Stayed here for one night before flying out. It was all I needed- clean and convenient. Refrigerator and microwave in room, morning breakfast (that I can’t speak to because I left too early), very friendly and helpful staff. My only minor complaint was that the airport shuttle didn’t start until 7a, which is not something I recall reading. I booked through hotels.com and the front desk person said that this information might not have been on their site (although I swear I looked at the propety’s own site, I easily could have missed it). Can ride to the airport was $20 for one person, which isn’t great but also isn’t terrible, especially considering it was 430a and there surely wasn’t an Uber or Lyft to be found. So if you don’t care about bells and whistles, and just want a clean place to sleep close to Love Field, this is a safe bet.More</t>
   </si>
   <si>
+    <t>Kimberley J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532952-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>This hotel is Beautiful from the exterior to the interior! I love the new multi color sign and purple accents outside! When you walk in you are greeted with a smile and it looks and smells clean. My room has 2 beds that were freshly made and my room waa spotless. I really enjoyed the interior courtyard where business associates and I were able to sit and talk about the day. Thank you so much for such a wonderful stay sleep inn!! More</t>
   </si>
   <si>
+    <t>Richard L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532826-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>This place is one of the new prototypes! We really like the sitting area in the courtyard. It's awesome ! Staff is very friendly and breakfast area looks quite inviting ! We happen d to be there in the night of manager reception which was a nice touch. I'll be back !More</t>
   </si>
   <si>
+    <t>MICHELE S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539250504-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>We were in Texas on vacation, so very little time was spent in the room. That said, it was SUPER clean, very quiet (even though our room window faced the common area) and the staff were helpful and accommodating.  We had some little issues - the shower door didn't close all the way, causing water to spray onto the floor outside the shower. We also had only decaf coffee packs for our in-room coffee maker. Both tiny issues, and we mentioned them to the staff.  Unfortunately, the person to whom this was mentioned mis-heard me and took the wrong room number down. So it wasn't rectified. Definitely not the fault of the person we spoke to - it was a simple mis-communication.  Other than that, we had a very nice stay there. We are considering returning to Dallas next year and will definitely book our room here!More</t>
   </si>
   <si>
+    <t>Marilyn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r535223384-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>We had a free room through Choice and chose this because if its location. The room was clean and the shower was great. The towels were a bit thin. The bed was very comfortable and the room was quiet. The breakfast was not that good. There was no bacon left and only half a biscuit. The sausage was dripping in grease. I would stay here again but probably would skip the breakfast.</t>
   </si>
   <si>
+    <t>Jesse K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534463598-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>My family and I spent 3 nights at this hotel and it was great. The staff was super friendly and the rooms were impressive for the price. It's a new hotel so you definitely notice how clean it is. Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Harleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534327927-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>Really enjoyed my stay here at the Sleep Inn, I cannot say enough kind things. You can tell that the place was newly renovated. The staff were very accommodating and eager to help!!! The rooms were very clean and the beds were so comfortable, exactly what i needed at the end of my long tourist-y days. One more thing was that their breakfast was really good, didn't have to look elsewhere but my own hotel first thing in the morning. Will definitely be staying again.</t>
   </si>
   <si>
+    <t>Ryan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r526378555-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>We needed a decent room near the airport for an early flight out from Love Field.  We arrived around 6pm and I needed to return my rental car to the airport by the end of the day.  I asked the clerk if the shuttle could pick me up at Avis, but I was informed that the shuttle driver already left for the day.  This was irritating because when we booked the hotel it clearly said the shuttle ran until 8 or 9.  So I had to get an Uber ride back to the hotel. Not a big deal, but it was a little irritating.  The next morning we had an early flight out and went down to eat breakfast early, but not everything was out and the things that were out were not very good.  After 12 days on the road touring Texas, this was by FAR the worst hotel breakfast we had.  At least the shuttle to the airport was on time in the morning and got us to the airport without any issues.The rooms were nice and the price was good, but don't plan on having breakfast here.More</t>
   </si>
   <si>
+    <t>Zahra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521245616-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>I loved this hotel! It's a new facility in a great location, uptown/downtown are easily accessible. Very clean, which is important, and comfy beds is a definite plus. Highly recommend for anyone looking!! More</t>
   </si>
   <si>
+    <t>Marium B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521242442-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t>My friend and I got a room for the night to be near downtown Dallas- this hotel was SUPER CLEAN, super convenient (we Ubered everywhere from here), and super affordable!! And the staff was so nice! Would HIGHLY recommend staying here!!!!!!!More</t>
   </si>
   <si>
+    <t>SemiAdventurous</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r508266387-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -549,6 +606,9 @@
     <t>Ate dinner nearby at Pappasitos (yummy) on Lombardy Lane, then checked in to Sleep Inn for one night before flying out early from Love Field. Room was clean &amp; beds were comfy. Had to leave too early for flights so didn't get to take advantage of the free breakfast. Wish they had something to grab &amp; go (like granola bar or banana) for those who have to leave before breakfast starts, but would stay here again. Staff was friendly, and I liked that it was pretty new.More</t>
   </si>
   <si>
+    <t>Telencia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r503014651-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t xml:space="preserve">Very nice place to stay. There were clean and spacious rooms, free wifi and breakfast, and convenient parking! We arrived at the hotel extremely late at night and thought we wouldn't have a room but the front desk lady saved our room for us. So grateful for that. </t>
   </si>
   <si>
+    <t>aaatravelerDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r500159088-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -579,6 +642,9 @@
     <t>Very nice staff.  This place has all the necessities.  Free wifi, breakfast, microwave and refrigerator.  It also has plenty of charging ports for all your electronics.  Great value and good location.  This is a new location so everything is in great working order.</t>
   </si>
   <si>
+    <t>Monika L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r496152502-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,6 +672,9 @@
     <t>Came up to pick up my grandson from love field airport the first hotel I googled turned out way to expensive so we went next door and found this brand new hotel for very reasonable price the rooms are very clean smells good the staff was super nice and it does have free breakfast which has large selection of choices, beds are comfy loved the pillows soft and luxuries, the only letdown was no pool but we went shopping instead lol. Definitely will recommend this hotel it's also so close to Love Field Airport . More</t>
   </si>
   <si>
+    <t>Sarah W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495941027-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Great location, super clean. Hotel is brand new! Great bang for the buck. The free breakfast was delicious, shuttle driver was friendly. Will definitely stay here again! Was perfect for our early morning flight out of love field. More</t>
   </si>
   <si>
+    <t>Brent788</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495764888-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -648,6 +720,9 @@
     <t>Stayed here a night before a morning flight out of Love Field. The hotel was very nice and a steal for the price(had only been open 40 days when I checked in June 8th), had a nice breakfast, and I also parked my car there for 5 days for cheaper than the airport parking would have cost, my only problem was the lack of outside windows. My room had a view of the lobby area and it was very strange. At times I was having moments of feeling trapped or something lolMore</t>
   </si>
   <si>
+    <t>Richard_B904</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r487555699-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -673,6 +748,9 @@
   </si>
   <si>
     <t>Had an early morning flight out of Love Field so decided to stay at this hotel.  Love staying at brand new hotels (I might have been one of the first people to stay in my room).  Had a nice stay in a comfortable bed and grabbed a quick bite to eat in the morning (full hot breakfast which was a plus).  Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>sandersin73</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r484756854-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -1228,43 +1306,47 @@
       <c r="A2" t="n">
         <v>65686</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>164319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1284,50 +1366,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65686</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>17391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1339,56 +1425,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65686</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>48339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1402,50 +1492,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65686</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1459,50 +1553,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65686</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1520,50 +1618,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65686</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1583,50 +1685,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65686</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1640,41 +1746,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65686</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177451</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1693,50 +1803,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65686</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1750,50 +1864,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65686</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>85802</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1805,56 +1923,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65686</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>9048</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1866,56 +1988,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65686</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177452</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1933,56 +2059,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65686</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1996,50 +2126,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65686</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>91040</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2055,56 +2189,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65686</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177453</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2124,50 +2262,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65686</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2187,50 +2329,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65686</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2242,56 +2388,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65686</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177455</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2303,56 +2453,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="X19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65686</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177456</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2364,56 +2518,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65686</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177457</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2427,41 +2585,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65686</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177458</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2480,50 +2642,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65686</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177459</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2535,56 +2701,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65686</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2596,56 +2766,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65686</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2661,56 +2835,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="X25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65686</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177461</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2726,56 +2904,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65686</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177462</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2793,56 +2975,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65686</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -2858,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_682.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,324 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>EC170131</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r610541909-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>11676687</t>
+  </si>
+  <si>
+    <t>610541909</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>GATS</t>
+  </si>
+  <si>
+    <t>Motel looks new, is clean and very nice. Staff is very friendly. I have to think to come up with something negative, and since I drive a full size pickup, the parking spots could be bigger, that’s it. Breakfast was hot and fresh, rooms are very nice. I was just there overnight for the GATS truck show, but will definitely stay there again when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>SLEEP I, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>Motel looks new, is clean and very nice. Staff is very friendly. I have to think to come up with something negative, and since I drive a full size pickup, the parking spots could be bigger, that’s it. Breakfast was hot and fresh, rooms are very nice. I was just there overnight for the GATS truck show, but will definitely stay there again when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r610207056-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>610207056</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Family birthday</t>
+  </si>
+  <si>
+    <t>Very modern, clean and spacious. Beds are very comfortable. Would definitely stay again. Because of my allergies to cleaner's, they we're very accommodating in finding me a room that was not cleaned within a few hrs of my arrival.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r607794517-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>607794517</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Our go to hotel!</t>
+  </si>
+  <si>
+    <t>We love this hotel!  Clean rooms, really comfortable beds, good breakfast with real eggs!  We stay here every time we come to TX to visit our son at college. Not our first time here and won’t be our last!MoreShow less</t>
+  </si>
+  <si>
+    <t>SLEEP I, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We love this hotel!  Clean rooms, really comfortable beds, good breakfast with real eggs!  We stay here every time we come to TX to visit our son at college. Not our first time here and won’t be our last!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r607160909-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>607160909</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>Very clean.  Staff very friendly and helpful.  Excellent breakfast and nacho bar.  Quit.  It couldn't be a better value for the price.  Used Lyft for transport into downtown Dallas and price was only $11 to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Very clean.  Staff very friendly and helpful.  Excellent breakfast and nacho bar.  Quit.  It couldn't be a better value for the price.  Used Lyft for transport into downtown Dallas and price was only $11 to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r606576236-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>606576236</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Top Notch Sleep Inn</t>
+  </si>
+  <si>
+    <t>This is the best Sleep Inn we have ever stayed in.  The breakfast was very good with many hot foods included, good coffee!  The room was nicer than one usually expects at most Sleep Inns with a full bath and newly renovated rooms.  The entire staff was helpful and pleasant. This hotel perfectly fit our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the best Sleep Inn we have ever stayed in.  The breakfast was very good with many hot foods included, good coffee!  The room was nicer than one usually expects at most Sleep Inns with a full bath and newly renovated rooms.  The entire staff was helpful and pleasant. This hotel perfectly fit our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r604121354-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>604121354</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Clean, Sleek and Affordable Rates</t>
+  </si>
+  <si>
+    <t>Nice place, Very welcoming, staff are professional, kind and helpful. Rooms are clean, well maintained  and spacious. A definite return business from me and I’ll definitely recommend to my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>SLEEP I, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Nice place, Very welcoming, staff are professional, kind and helpful. Rooms are clean, well maintained  and spacious. A definite return business from me and I’ll definitely recommend to my family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r603299019-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>603299019</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Value proposition</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Clean, quiet, pleasant stay with better than average hotel breakfast. No  walkable restaurants nearby but plenty with a car or perhaps using free shuttle service which does stop at 7pm.MoreShow less</t>
+  </si>
+  <si>
+    <t>SLEEP I, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Clean, quiet, pleasant stay with better than average hotel breakfast. No  walkable restaurants nearby but plenty with a car or perhaps using free shuttle service which does stop at 7pm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r602717083-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>602717083</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Clean modern and spacious</t>
+  </si>
+  <si>
+    <t>Pleasant staff, good breakfast including fresh fruit salad, efficient shuttle to the airport. Will stay again. Comfortable beds and good desk space. That was all i had to say but the platform is requiring a minimum of 200 charactersMoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasant staff, good breakfast including fresh fruit salad, efficient shuttle to the airport. Will stay again. Comfortable beds and good desk space. That was all i had to say but the platform is requiring a minimum of 200 charactersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r599814303-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>599814303</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for the services and price! </t>
+  </si>
+  <si>
+    <t>Recently stayed the night at this hotel before an early morning flight. The hotel offers free parking for 7 days and a shuttle to/from the airport. The hotel is clean, but not posh and the staff helpful and friendly. The earliest shuttle service is 5 am and the latest is 7, so plan accordingly. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>SLEEP I, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Recently stayed the night at this hotel before an early morning flight. The hotel offers free parking for 7 days and a shuttle to/from the airport. The hotel is clean, but not posh and the staff helpful and friendly. The earliest shuttle service is 5 am and the latest is 7, so plan accordingly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r592613837-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592613837</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally Surprised </t>
+  </si>
+  <si>
+    <t>This is the prettiest Sleep Inn I’ve ever seen! The atrium is very spacious and well lit. The beds VERY comfortable. The room has fridge but no microwave. The young lady checking us in wasn’t to friendly; she never looked at me directly, nor smiled but she was efficient. Most businesses have poor customer service. Anyhow it is a really nice Sleep Inn.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r592344573-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592344573</t>
+  </si>
+  <si>
+    <t>Two excellent stays</t>
+  </si>
+  <si>
+    <t>We stayed here twice - once on the first night of our road trip and once on the last night, ready for our flight back from Dallas.  I was glad we chose this hotel.  The staff were very friendly and upon arrival both times, they had the 'Happy Hour', which was free drinks and snacks and we were really appreciative of this after a long trip.  The hotel is very clean and spacious.  The location is great - only a 15 min drive from the centre of Dallas.  We had an external view on our first day and an internal window for our second stay.  Neither were particularly picturesque, but that did not bother us.  The much-needed air con worked a treat and the sleep quality was great.  We even managed to get a late check-out on our last day, which was not a problem for the hotel staff.  We had asked for it the night before and although we got a call at 11:10 the following day to ask if we were checking out, I had to explain to the front desk that I had pre-arranged a late check-out and after going off to confirm this again, we were allowed to stay in the room until 2pm.  I would definitely stay here again if I was ever in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here twice - once on the first night of our road trip and once on the last night, ready for our flight back from Dallas.  I was glad we chose this hotel.  The staff were very friendly and upon arrival both times, they had the 'Happy Hour', which was free drinks and snacks and we were really appreciative of this after a long trip.  The hotel is very clean and spacious.  The location is great - only a 15 min drive from the centre of Dallas.  We had an external view on our first day and an internal window for our second stay.  Neither were particularly picturesque, but that did not bother us.  The much-needed air con worked a treat and the sleep quality was great.  We even managed to get a late check-out on our last day, which was not a problem for the hotel staff.  We had asked for it the night before and although we got a call at 11:10 the following day to ask if we were checking out, I had to explain to the front desk that I had pre-arranged a late check-out and after going off to confirm this again, we were allowed to stay in the room until 2pm.  I would definitely stay here again if I was ever in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r587711515-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>587711515</t>
   </si>
   <si>
     <t>06/15/2018</t>
   </si>
   <si>
+    <t>Basic Room, Nice Check-in Staff</t>
+  </si>
+  <si>
+    <t>Flying in late to Dallas, we just needed a room for the night before we drove to Austin the next day. Check in was pleasant and the check-in clerk was very nice. The room was unremarkable and plain but appeared to be clean. After we’d already unpacked and changed for bed, the sound I’d been hearing was a drip from the ceiling. I called 4 times and kept being put on hold. Finally I just started talking before she put me on hold again. (Different clerk from check-in) She offered another room since no maintenance was on duty. It was just one of those things but was not the best experience when you’re exhausted and just want to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Flying in late to Dallas, we just needed a room for the night before we drove to Austin the next day. Check in was pleasant and the check-in clerk was very nice. The room was unremarkable and plain but appeared to be clean. After we’d already unpacked and changed for bed, the sound I’d been hearing was a drip from the ceiling. I called 4 times and kept being put on hold. Finally I just started talking before she put me on hold again. (Different clerk from check-in) She offered another room since no maintenance was on duty. It was just one of those things but was not the best experience when you’re exhausted and just want to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r582030941-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>582030941</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>Stayed here overnight because i needed easy access to the airport the next morning. This is the second time I’ve stayed here and I will be back. Close to major eating establishments (they are just north of the hotel on interstate) and extremely easy access to the airport. Breakfast was acceptable for what i needed. My king bed was comfortable and the room was exceptionally clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here overnight because i needed easy access to the airport the next morning. This is the second time I’ve stayed here and I will be back. Close to major eating establishments (they are just north of the hotel on interstate) and extremely easy access to the airport. Breakfast was acceptable for what i needed. My king bed was comfortable and the room was exceptionally clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r579283288-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>579283288</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Best kept secret</t>
+  </si>
+  <si>
+    <t>Such a nice little gem of a hotel..staff is amazing and very helpful. Rooms are very nice...nice breakfast included. All around great experience. Will look for other sleep Inns when I travel..left our cars there for 4 days, included in room price..all was great</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r576043959-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>11676687</t>
-  </si>
-  <si>
     <t>576043959</t>
   </si>
   <si>
@@ -177,18 +480,9 @@
     <t>Over the last few years I have stayed mostly at the La Quinta next to this hotel but the noise in the La Qunita finally drove me to try someplace else.  There are a few guys on our construction crew staying here and based on what they said, I figured I would give it a try.I was happy with everything.  The staff are nice, the rooms are clean, my room was quiet and I slept well.  The breakfast has a good selection and some nights they have complimentary food and beverages at dinner time.  That's a first for me at any hotel.  You need to be there when they start because it's very popular and is soon picked through.The room seemed kind of small but is was fine for just me.  I'll stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Over the last few years I have stayed mostly at the La Quinta next to this hotel but the noise in the La Qunita finally drove me to try someplace else.  There are a few guys on our construction crew staying here and based on what they said, I figured I would give it a try.I was happy with everything.  The staff are nice, the rooms are clean, my room was quiet and I slept well.  The breakfast has a good selection and some nights they have complimentary food and beverages at dinner time.  That's a first for me at any hotel.  You need to be there when they start because it's very popular and is soon picked through.The room seemed kind of small but is was fine for just me.  I'll stay here again.More</t>
   </si>
   <si>
-    <t>Virginia G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r573953774-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,9 +507,6 @@
     <t>Room wasn’t restocked with regular coffee or shampoo and conditioner. They didn’t see that as much of a problem, just shrugged when told of it. They are not covering the basics in the rooms right now. More</t>
   </si>
   <si>
-    <t>ChambersKEC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r572339562-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,7 +531,37 @@
     <t>Wow, Sleep Inn definitely didn’t diappoint me! I was not expecting this hotel to be a wonderful as it was. The location was good, but construction made getting there slightly complicated. When we arrived the gentleman at the front desk was very friendly and speedy with check in. He even signed me up to get late check out. One night when i needed a fork he put a whole tray of utensils out. The room was so spacious, very clean and lightly was adequate. Our view was pretty strange only because our window view was of the lobby (which was also kind of funny). The bathroom was probably my favorite part. The shower was real clean and modern. Water was hot and worked well! Overall my stay here was great and I enjoyed.More</t>
   </si>
   <si>
-    <t>Chris W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r572325256-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>572325256</t>
+  </si>
+  <si>
+    <t>REASONABLE RATES AND COMFORTABLE</t>
+  </si>
+  <si>
+    <t>This appears to be a relatively new Hotel located between the Carpenter Freeway and I-35 (Stemmons Freeway). I chose this hotel because I was attending the NCAA Basketball Tournament at the American Airlines Center which is located about 5-miles away and this Hotel had very reasonable rates.  I made my reservations through the Choice Website and check in was quick and easy.  The staff were very friendly and professional during my entire stay.  The breakfast consisted of the usual cereal, juice, waffles, eggs, meat, fruit and coffee. The breakfast area was well attended and well stocked throughout the advertised time.  This hotel offers free WiFi which worked well during my entire 4-day stay. Getting to and from the American Airlines Center was very easy.  Overall this Sleep Inn met my needs and I was very happy with my 4- night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This appears to be a relatively new Hotel located between the Carpenter Freeway and I-35 (Stemmons Freeway). I chose this hotel because I was attending the NCAA Basketball Tournament at the American Airlines Center which is located about 5-miles away and this Hotel had very reasonable rates.  I made my reservations through the Choice Website and check in was quick and easy.  The staff were very friendly and professional during my entire stay.  The breakfast consisted of the usual cereal, juice, waffles, eggs, meat, fruit and coffee. The breakfast area was well attended and well stocked throughout the advertised time.  This hotel offers free WiFi which worked well during my entire 4-day stay. Getting to and from the American Airlines Center was very easy.  Overall this Sleep Inn met my needs and I was very happy with my 4- night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r570633736-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>570633736</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Easy parking</t>
+  </si>
+  <si>
+    <t>We have stayed here 4 times in the past two months. We live a few hours away and have had to fly out of Love field airport each stay. I will start with their shuttle service made our hectic schedule easy breezy. We needed a safe place to park our car for a week one visit and a few days the others. They charge for airport  parking  but it was very cheap . Shuttle doesn't  start  until 7 in the morn and we had   a flight before then. The front desk clerk actually  called and made a reservation  for us with the local cab service.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r567995480-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -261,12 +582,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Angie_Ohio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r562758031-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,15 +597,6 @@
     <t>Being a beautiful, new hotel with a very attentive staff can only be rated so high when the mattress is so firm that I barely slept.  I woke up several times during the night in back pain due to the mattress.  I am a frequent user of Choice Hotels and this was the first time it ever happened to me.  Other than hardly sleeping, the hotel was clean and very attractive.  The hotel staff was friendly.</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>rboykins71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r561121531-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,7 +615,37 @@
     <t>The WiFi went out and was not that reliable.  The TV stopped working at midnight.  The breakfast is awful.  This is my second visit to this hotel.  I was one of their first guests and said I would come back after the first experience, but this was too much for a business traveler.  The Customer Service does not help matters at all.  They take guests for granted.  I interacted with 3 different ones and they all suck.  This hotel has great hope and a good vibe, but I cannot say one good thing about this place as it is being ran.  The check in process for a Diamond member was 10 minutes.  They can only get better.  If it gets worse, bankruptcy.   Very noisy hotel.More</t>
   </si>
   <si>
-    <t>Hillrae</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r556761067-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556761067</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Simply Amazing</t>
+  </si>
+  <si>
+    <t>This hotel was nothing short of spectacular! Other than it being brand new, it was amazingly clean and had the friendliest staff you could ever ask for! The food served during breakfast made it that much easier to not have to leave the hotel. Everything that was even the slightest concern to my family was fixed by the staff. Will definitely be staying here again!!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r556019189-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556019189</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 night stay </t>
+  </si>
+  <si>
+    <t>Only have 2 minor complaints about this hotel other than the shuttle not running earlier than 7am and the extra firm mattress thought I was a firm mattress guy but guess I like a little bit of both not too hard not too soft everything is awesome here free parking nice rooms close to the airport other than that everything is great</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r554951409-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -327,12 +663,6 @@
     <t xml:space="preserve">New hotel, easy access to Love Field. Staff was friendly during check-in and checkout. Bed was comfortable. Bathroom was small and sliding shower door wouldn't stay closed. Would stay here again if/when we need easy access to airport. </t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>Devin R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r552793369-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,9 +678,6 @@
     <t xml:space="preserve">Nice and clean, easy booking and a polite staff! Decent priced. The bed was very comfortable and the breakfast was awesome! Good biscuits and gravy and real eggs. Felt very safe here, and will stay again when we come back. </t>
   </si>
   <si>
-    <t>Elizabeth B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r549575644-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,7 +696,52 @@
     <t>Stayed here for one night before flying out. It was all I needed- clean and convenient. Refrigerator and microwave in room, morning breakfast (that I can’t speak to because I left too early), very friendly and helpful staff. My only minor complaint was that the airport shuttle didn’t start until 7a, which is not something I recall reading. I booked through hotels.com and the front desk person said that this information might not have been on their site (although I swear I looked at the propety’s own site, I easily could have missed it). Can ride to the airport was $20 for one person, which isn’t great but also isn’t terrible, especially considering it was 430a and there surely wasn’t an Uber or Lyft to be found. So if you don’t care about bells and whistles, and just want a clean place to sleep close to Love Field, this is a safe bet.More</t>
   </si>
   <si>
-    <t>Kimberley J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r545099934-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>545099934</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Brand new and shiny!</t>
+  </si>
+  <si>
+    <t>This hotel has just been open 6 months.  The rooms are new and clean, and the atrium lobby is lovely.  There is a large breakfast room and 24-hour coffee.  Note that their rooms have either 2 double beds or 1 king.  Our room with 2 double beds was rather crowded, but the amenities (and plush towels) were nice.  Overall, a very nice looking place.  I would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has just been open 6 months.  The rooms are new and clean, and the atrium lobby is lovely.  There is a large breakfast room and 24-hour coffee.  Note that their rooms have either 2 double beds or 1 king.  Our room with 2 double beds was rather crowded, but the amenities (and plush towels) were nice.  Overall, a very nice looking place.  I would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r543448018-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>543448018</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not have been better. </t>
+  </si>
+  <si>
+    <t>Great location, quiet and secure. Helpful staff, big rooms. Close to downtown and the interstate. Staff is knowledgeable about local places and was very eager to help us find little gems off the beaten path. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Great location, quiet and secure. Helpful staff, big rooms. Close to downtown and the interstate. Staff is knowledgeable about local places and was very eager to help us find little gems off the beaten path. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532952-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -384,9 +756,6 @@
     <t>This hotel is Beautiful from the exterior to the interior! I love the new multi color sign and purple accents outside! When you walk in you are greeted with a smile and it looks and smells clean. My room has 2 beds that were freshly made and my room waa spotless. I really enjoyed the interior courtyard where business associates and I were able to sit and talk about the day. Thank you so much for such a wonderful stay sleep inn!! MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded November 9, 2017</t>
   </si>
   <si>
@@ -396,9 +765,6 @@
     <t>This hotel is Beautiful from the exterior to the interior! I love the new multi color sign and purple accents outside! When you walk in you are greeted with a smile and it looks and smells clean. My room has 2 beds that were freshly made and my room waa spotless. I really enjoyed the interior courtyard where business associates and I were able to sit and talk about the day. Thank you so much for such a wonderful stay sleep inn!! More</t>
   </si>
   <si>
-    <t>Richard L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539532826-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,9 +786,6 @@
     <t>This place is one of the new prototypes! We really like the sitting area in the courtyard. It's awesome ! Staff is very friendly and breakfast area looks quite inviting ! We happen d to be there in the night of manager reception which was a nice touch. I'll be back !More</t>
   </si>
   <si>
-    <t>MICHELE S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r539250504-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -441,7 +804,37 @@
     <t>We were in Texas on vacation, so very little time was spent in the room. That said, it was SUPER clean, very quiet (even though our room window faced the common area) and the staff were helpful and accommodating.  We had some little issues - the shower door didn't close all the way, causing water to spray onto the floor outside the shower. We also had only decaf coffee packs for our in-room coffee maker. Both tiny issues, and we mentioned them to the staff.  Unfortunately, the person to whom this was mentioned mis-heard me and took the wrong room number down. So it wasn't rectified. Definitely not the fault of the person we spoke to - it was a simple mis-communication.  Other than that, we had a very nice stay there. We are considering returning to Dallas next year and will definitely book our room here!More</t>
   </si>
   <si>
-    <t>Marilyn M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r537889519-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>537889519</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff in a brand new hotel!</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel on a Tuesday morning at about 10:15. I asked the young man at the front desk if I could sit in the lobby until I had to leave for a meeting at lunch time. He said he could check me into my room now if I wanted! He was a very nice young man. I stayed in the hotel for 3 nights and was impressed by the staff. Everyone I met, from the manager to one of the men who did the lawn care, was polite and friendly. Each time I left the building someone had something nice to say, and each time I returned I was greeted as though I was part of the family. The room I stayed in was extremely nice for the price. They have inner rooms which face a large gathering room down below, or outer rooms which face the outside of the building. My room was large, clean and quiet. I don't recall ever hearing an airplane, though it is near the airport. Easy access to major highways as well. I am planning on staying here again when I return to Dallas later this month.The breakfast was good every morning. I really like the tea that they have available. it isn't the standard fare one gets at a hotel, but specialty teas that were very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel on a Tuesday morning at about 10:15. I asked the young man at the front desk if I could sit in the lobby until I had to leave for a meeting at lunch time. He said he could check me into my room now if I wanted! He was a very nice young man. I stayed in the hotel for 3 nights and was impressed by the staff. Everyone I met, from the manager to one of the men who did the lawn care, was polite and friendly. Each time I left the building someone had something nice to say, and each time I returned I was greeted as though I was part of the family. The room I stayed in was extremely nice for the price. They have inner rooms which face a large gathering room down below, or outer rooms which face the outside of the building. My room was large, clean and quiet. I don't recall ever hearing an airplane, though it is near the airport. Easy access to major highways as well. I am planning on staying here again when I return to Dallas later this month.The breakfast was good every morning. I really like the tea that they have available. it isn't the standard fare one gets at a hotel, but specialty teas that were very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r536405675-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536405675</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>I stay at choice properties a lot, as I travel a fair amount for work.  I don't usually get a hotel in Dallas, as I have family here, but I had to this time, and was SO pleasantly surprised.This property is brand new, everything is clean, and nice, it really impressed me.  This is very much a business traveler hotel, don't expect what you would get at a full serve hotel here.  However, the staff is nice, the breakfast was great, and free parking and wifi.I will stay here again for sure.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r535223384-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -459,9 +852,6 @@
     <t>We had a free room through Choice and chose this because if its location. The room was clean and the shower was great. The towels were a bit thin. The bed was very comfortable and the room was quiet. The breakfast was not that good. There was no bacon left and only half a biscuit. The sausage was dripping in grease. I would stay here again but probably would skip the breakfast.</t>
   </si>
   <si>
-    <t>Jesse K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534463598-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,9 +867,6 @@
     <t>My family and I spent 3 nights at this hotel and it was great. The staff was super friendly and the rooms were impressive for the price. It's a new hotel so you definitely notice how clean it is. Would definitely stay here again!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded October 21, 2017</t>
   </si>
   <si>
@@ -489,9 +876,6 @@
     <t>My family and I spent 3 nights at this hotel and it was great. The staff was super friendly and the rooms were impressive for the price. It's a new hotel so you definitely notice how clean it is. Would definitely stay here again!More</t>
   </si>
   <si>
-    <t>Harleen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r534327927-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,7 +888,52 @@
     <t>Really enjoyed my stay here at the Sleep Inn, I cannot say enough kind things. You can tell that the place was newly renovated. The staff were very accommodating and eager to help!!! The rooms were very clean and the beds were so comfortable, exactly what i needed at the end of my long tourist-y days. One more thing was that their breakfast was really good, didn't have to look elsewhere but my own hotel first thing in the morning. Will definitely be staying again.</t>
   </si>
   <si>
-    <t>Ryan S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r533267853-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533267853</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>NOT Mr. Roger's Neighborhood!</t>
+  </si>
+  <si>
+    <t>We spent one night at the Sleep Inn Dallas Love Field because we had an early flight the next morning. We arrived around 8:30 PM &amp; were greeted by the front desk clerk who gave us a room as requested away from the elevator on the top floor. The room appeared to be clean &amp; the beds were comfortable. I found the towels to be of lesser quality than I am accustomed to at other hotels. We experienced difficulty with the AC. Even though we had the thermostat set to 68 degrees we found the room to be hot all night long. All of these things would not have kept me from giving the Sleep Inn a higher rating. What keeps me from giving this hotel a higher rating is what we encountered as we left the hotel around 4:30 A.M. When we entered the lobby we saw a strange looking guy loitering about as we checked out. As we left the hotel, there were 2 ladies of the evening standing in front of the hotel. They HAD to be prostitutes based on the fact we could see more undergarments than we could see clothes. The two women then went into the hotel in the direction of the strange loitering guy. Feeling very uncomfortable, my husband opted not to go back into the hotel to get a cup of coffee. As we drove away, within 2 blocks from the hotel...We spent one night at the Sleep Inn Dallas Love Field because we had an early flight the next morning. We arrived around 8:30 PM &amp; were greeted by the front desk clerk who gave us a room as requested away from the elevator on the top floor. The room appeared to be clean &amp; the beds were comfortable. I found the towels to be of lesser quality than I am accustomed to at other hotels. We experienced difficulty with the AC. Even though we had the thermostat set to 68 degrees we found the room to be hot all night long. All of these things would not have kept me from giving the Sleep Inn a higher rating. What keeps me from giving this hotel a higher rating is what we encountered as we left the hotel around 4:30 A.M. When we entered the lobby we saw a strange looking guy loitering about as we checked out. As we left the hotel, there were 2 ladies of the evening standing in front of the hotel. They HAD to be prostitutes based on the fact we could see more undergarments than we could see clothes. The two women then went into the hotel in the direction of the strange loitering guy. Feeling very uncomfortable, my husband opted not to go back into the hotel to get a cup of coffee. As we drove away, within 2 blocks from the hotel there was some sort of altercation where 2 police cars were detaining people. To call the neighborhood sketchy at 4:30 A.M. would be an understatement. Next time I will find a hotel in a better part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>We spent one night at the Sleep Inn Dallas Love Field because we had an early flight the next morning. We arrived around 8:30 PM &amp; were greeted by the front desk clerk who gave us a room as requested away from the elevator on the top floor. The room appeared to be clean &amp; the beds were comfortable. I found the towels to be of lesser quality than I am accustomed to at other hotels. We experienced difficulty with the AC. Even though we had the thermostat set to 68 degrees we found the room to be hot all night long. All of these things would not have kept me from giving the Sleep Inn a higher rating. What keeps me from giving this hotel a higher rating is what we encountered as we left the hotel around 4:30 A.M. When we entered the lobby we saw a strange looking guy loitering about as we checked out. As we left the hotel, there were 2 ladies of the evening standing in front of the hotel. They HAD to be prostitutes based on the fact we could see more undergarments than we could see clothes. The two women then went into the hotel in the direction of the strange loitering guy. Feeling very uncomfortable, my husband opted not to go back into the hotel to get a cup of coffee. As we drove away, within 2 blocks from the hotel...We spent one night at the Sleep Inn Dallas Love Field because we had an early flight the next morning. We arrived around 8:30 PM &amp; were greeted by the front desk clerk who gave us a room as requested away from the elevator on the top floor. The room appeared to be clean &amp; the beds were comfortable. I found the towels to be of lesser quality than I am accustomed to at other hotels. We experienced difficulty with the AC. Even though we had the thermostat set to 68 degrees we found the room to be hot all night long. All of these things would not have kept me from giving the Sleep Inn a higher rating. What keeps me from giving this hotel a higher rating is what we encountered as we left the hotel around 4:30 A.M. When we entered the lobby we saw a strange looking guy loitering about as we checked out. As we left the hotel, there were 2 ladies of the evening standing in front of the hotel. They HAD to be prostitutes based on the fact we could see more undergarments than we could see clothes. The two women then went into the hotel in the direction of the strange loitering guy. Feeling very uncomfortable, my husband opted not to go back into the hotel to get a cup of coffee. As we drove away, within 2 blocks from the hotel there was some sort of altercation where 2 police cars were detaining people. To call the neighborhood sketchy at 4:30 A.M. would be an understatement. Next time I will find a hotel in a better part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r531107972-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>531107972</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>A new hotel, very clean. Hotel staff were friendly. Just a short over night stay but our stay was pleasant no issues at all! Had a king room, it was a very spacious. Bed and pillows were comfortable. Just note our room window looked in the the foyer hall of the hotel that had tables and chairs were people were sitting using their computers &amp; drinking coffee. That's was little different but we didn't have any noise issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>A new hotel, very clean. Hotel staff were friendly. Just a short over night stay but our stay was pleasant no issues at all! Had a king room, it was a very spacious. Bed and pillows were comfortable. Just note our room window looked in the the foyer hall of the hotel that had tables and chairs were people were sitting using their computers &amp; drinking coffee. That's was little different but we didn't have any noise issues. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r526378555-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -528,9 +957,6 @@
     <t>We needed a decent room near the airport for an early flight out from Love Field.  We arrived around 6pm and I needed to return my rental car to the airport by the end of the day.  I asked the clerk if the shuttle could pick me up at Avis, but I was informed that the shuttle driver already left for the day.  This was irritating because when we booked the hotel it clearly said the shuttle ran until 8 or 9.  So I had to get an Uber ride back to the hotel. Not a big deal, but it was a little irritating.  The next morning we had an early flight out and went down to eat breakfast early, but not everything was out and the things that were out were not very good.  After 12 days on the road touring Texas, this was by FAR the worst hotel breakfast we had.  At least the shuttle to the airport was on time in the morning and got us to the airport without any issues.The rooms were nice and the price was good, but don't plan on having breakfast here.More</t>
   </si>
   <si>
-    <t>Zahra M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521245616-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,9 +984,6 @@
     <t>I loved this hotel! It's a new facility in a great location, uptown/downtown are easily accessible. Very clean, which is important, and comfy beds is a definite plus. Highly recommend for anyone looking!! More</t>
   </si>
   <si>
-    <t>Marium B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r521242442-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,7 +999,43 @@
     <t>My friend and I got a room for the night to be near downtown Dallas- this hotel was SUPER CLEAN, super convenient (we Ubered everywhere from here), and super affordable!! And the staff was so nice! Would HIGHLY recommend staying here!!!!!!!More</t>
   </si>
   <si>
-    <t>SemiAdventurous</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r519692128-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>519692128</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>AMAZING STAY!</t>
+  </si>
+  <si>
+    <t>AWESOME customer service and very hospitable!! Clean rooms, comfortable beds and great environment. The staff were very inviting and welcoming! The complimentary breakfast served from 6am-9am is tasty. If I ever come to Dallas, I'm staying at the Sleep Inn Love Field!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r516849956-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>516849956</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly Good</t>
+  </si>
+  <si>
+    <t>Great place to stay when you are using Love Field, it being only 10 minutes away. It's very new, clean and quiet. Rooms were large and comfortable. Only minor negative, our room looked out over an inner courtyard so we couldn't look outside to see the early morning weather. We left too early to take advantage of the included breakfast. Wiil stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay when you are using Love Field, it being only 10 minutes away. It's very new, clean and quiet. Rooms were large and comfortable. Only minor negative, our room looked out over an inner courtyard so we couldn't look outside to see the early morning weather. We left too early to take advantage of the included breakfast. Wiil stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r508266387-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -606,9 +1065,6 @@
     <t>Ate dinner nearby at Pappasitos (yummy) on Lombardy Lane, then checked in to Sleep Inn for one night before flying out early from Love Field. Room was clean &amp; beds were comfy. Had to leave too early for flights so didn't get to take advantage of the free breakfast. Wish they had something to grab &amp; go (like granola bar or banana) for those who have to leave before breakfast starts, but would stay here again. Staff was friendly, and I liked that it was pretty new.More</t>
   </si>
   <si>
-    <t>Telencia H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r503014651-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -624,9 +1080,6 @@
     <t xml:space="preserve">Very nice place to stay. There were clean and spacious rooms, free wifi and breakfast, and convenient parking! We arrived at the hotel extremely late at night and thought we wouldn't have a room but the front desk lady saved our room for us. So grateful for that. </t>
   </si>
   <si>
-    <t>aaatravelerDallas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r500159088-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -642,7 +1095,49 @@
     <t>Very nice staff.  This place has all the necessities.  Free wifi, breakfast, microwave and refrigerator.  It also has plenty of charging ports for all your electronics.  Great value and good location.  This is a new location so everything is in great working order.</t>
   </si>
   <si>
-    <t>Monika L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r498414113-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>498414113</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>New Hotel with great location</t>
+  </si>
+  <si>
+    <t>The hotel had been open for only a few months.  All the hotel aspects - rooms, common areas, staff, service - was outstanding.  The breakfast was great!!!!  I use the laundry machines and they were a great addition to the hotel stay.Drawbacks - the fitness center is small.  Its nice and clean, but small.  The location is close to all major fast food and chain restaurants, but the hotel is in a secluded area.  The showers did not have traction on them so slippery.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel had been open for only a few months.  All the hotel aspects - rooms, common areas, staff, service - was outstanding.  The breakfast was great!!!!  I use the laundry machines and they were a great addition to the hotel stay.Drawbacks - the fitness center is small.  Its nice and clean, but small.  The location is close to all major fast food and chain restaurants, but the hotel is in a secluded area.  The showers did not have traction on them so slippery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r497919517-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>497919517</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a gem! </t>
+  </si>
+  <si>
+    <t>Modern, clean, bright &amp; one of the best night's of sleep I've had. We are Starwood Preferred members but this was a fantastic alternate hotel for a quick overnight to catch an early flight from LUV. Drove from Austin to get my daughter on a direct flight to Reno for a camp &amp; stayed here after a full day at Six Flags. Easy 10 minute drive or less to LUV. Also close to Chili's, Olive Garden, @ a few other chains for a late dinner. Breakfast was good - staff was helpful &amp; courteous. A/C was cold!! Would stay here again for LUV departures if needed. The area in general is not "shiny &amp; new" but having grown up in Dallas area, it never has been near the airport. I felt safe staying here with my daughter. MoreShow less</t>
+  </si>
+  <si>
+    <t>Modern, clean, bright &amp; one of the best night's of sleep I've had. We are Starwood Preferred members but this was a fantastic alternate hotel for a quick overnight to catch an early flight from LUV. Drove from Austin to get my daughter on a direct flight to Reno for a camp &amp; stayed here after a full day at Six Flags. Easy 10 minute drive or less to LUV. Also close to Chili's, Olive Garden, @ a few other chains for a late dinner. Breakfast was good - staff was helpful &amp; courteous. A/C was cold!! Would stay here again for LUV departures if needed. The area in general is not "shiny &amp; new" but having grown up in Dallas area, it never has been near the airport. I felt safe staying here with my daughter. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r496152502-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -660,9 +1155,6 @@
     <t>Came up to pick up my grandson from love field airport the first hotel I googled turned out way to expensive so we went next door and found this brand new hotel for very reasonable price the rooms are very clean smells good the staff was super nice and it does have free breakfast which has large selection of choices, beds are comfy loved the pillows soft and luxuries, the only letdown was no pool but we went shopping instead lol. Definitely will recommend this hotel it's also so close to Love Field Airport . MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 27, 2017</t>
   </si>
   <si>
@@ -672,9 +1164,6 @@
     <t>Came up to pick up my grandson from love field airport the first hotel I googled turned out way to expensive so we went next door and found this brand new hotel for very reasonable price the rooms are very clean smells good the staff was super nice and it does have free breakfast which has large selection of choices, beds are comfy loved the pillows soft and luxuries, the only letdown was no pool but we went shopping instead lol. Definitely will recommend this hotel it's also so close to Love Field Airport . More</t>
   </si>
   <si>
-    <t>Sarah W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495941027-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -693,9 +1182,6 @@
     <t>Great location, super clean. Hotel is brand new! Great bang for the buck. The free breakfast was delicious, shuttle driver was friendly. Will definitely stay here again! Was perfect for our early morning flight out of love field. More</t>
   </si>
   <si>
-    <t>Brent788</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r495764888-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,7 +1206,46 @@
     <t>Stayed here a night before a morning flight out of Love Field. The hotel was very nice and a steal for the price(had only been open 40 days when I checked in June 8th), had a nice breakfast, and I also parked my car there for 5 days for cheaper than the airport parking would have cost, my only problem was the lack of outside windows. My room had a view of the lobby area and it was very strange. At times I was having moments of feeling trapped or something lolMore</t>
   </si>
   <si>
-    <t>Richard_B904</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r493607573-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>493607573</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Brand new near the airport</t>
+  </si>
+  <si>
+    <t>Stayed just a quick night before an early flight from Love Field.  Brand new hotel, very clean, everything is nice.  Bed was comfortable and A/C worked well (important in a TX summer!)  Left before breakfast, so can't comment on that.  Price as very good as well.Two comments just for suggested improvement, not major complaints:  1) the TV cable system was more complicated than need be (lots of channels with dashes and extra numbers).  The on screen guide takes forever to work through, and the written sheet in the room that listed channels had no relationship to the actual channels available. 2) only one small "tray" in the shower to hold anything.  Big enough to hold the small soap and nothing else.  My wife or daughters would have hated that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Stayed just a quick night before an early flight from Love Field.  Brand new hotel, very clean, everything is nice.  Bed was comfortable and A/C worked well (important in a TX summer!)  Left before breakfast, so can't comment on that.  Price as very good as well.Two comments just for suggested improvement, not major complaints:  1) the TV cable system was more complicated than need be (lots of channels with dashes and extra numbers).  The on screen guide takes forever to work through, and the written sheet in the room that listed channels had no relationship to the actual channels available. 2) only one small "tray" in the shower to hold anything.  Big enough to hold the small soap and nothing else.  My wife or daughters would have hated that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r490209070-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>490209070</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>This is a very nice new hotel!! This place is a steal for the price. It's close to both Airports and close enough to many attractions. I dealt with two different front desk employees and both were very polite and professional. This will be my new go to in the Dallas area.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r487555699-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
@@ -738,9 +1263,6 @@
     <t>Had an early morning flight out of Love Field so decided to stay at this hotel.  Love staying at brand new hotels (I might have been one of the first people to stay in my room).  Had a nice stay in a comfortable bed and grabbed a quick bite to eat in the morning (full hot breakfast which was a plus).  Would definitely stay again.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Gene T, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded June 3, 2017</t>
   </si>
   <si>
@@ -750,9 +1272,6 @@
     <t>Had an early morning flight out of Love Field so decided to stay at this hotel.  Love staying at brand new hotels (I might have been one of the first people to stay in my room).  Had a nice stay in a comfortable bed and grabbed a quick bite to eat in the morning (full hot breakfast which was a plus).  Would definitely stay again.More</t>
   </si>
   <si>
-    <t>sandersin73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r484756854-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
   </si>
   <si>
@@ -802,6 +1321,48 @@
   </si>
   <si>
     <t>This will be a great location once it is a finished product.  The WiFi was not reliable.  The electricity went out for 15 minutes.  They were unsure of pricing and could not collect points while on this stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r482232576-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>482232576</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Do They Run Copies Of  Drivers License </t>
+  </si>
+  <si>
+    <t>Had a reservation at this Hotel for Saturday, May 6th. Called 1 day prior to check in and asked about the hotels policy for incidental charge fee, the lady I spoke with stated the incidental charge is included in your rate if paying with major credit card, I said okay great! She then stated but if paying with cash it is a $50 deposit so long story short get to the hotel to check in and the lady at the desk proceeds to tell me there is $50 hold regardless so okay fine with that but the issue that made me leave out the door is they run a copy of drivers license and keep it, that should be against the law for the simple fact, I'm a victim of identity theft and to have a stranger to run a copy of my drivers license with all my personal info on it excluding SS# bothers the heck out of me!!!!! I would never recommend this hotel for that reason alone so me and my daughter politely left and now I'm in my room at the ALOT/ ELEMENT Lovefield and pleased with their total check in process including their $50 incidental hold!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a reservation at this Hotel for Saturday, May 6th. Called 1 day prior to check in and asked about the hotels policy for incidental charge fee, the lady I spoke with stated the incidental charge is included in your rate if paying with major credit card, I said okay great! She then stated but if paying with cash it is a $50 deposit so long story short get to the hotel to check in and the lady at the desk proceeds to tell me there is $50 hold regardless so okay fine with that but the issue that made me leave out the door is they run a copy of drivers license and keep it, that should be against the law for the simple fact, I'm a victim of identity theft and to have a stranger to run a copy of my drivers license with all my personal info on it excluding SS# bothers the heck out of me!!!!! I would never recommend this hotel for that reason alone so me and my daughter politely left and now I'm in my room at the ALOT/ ELEMENT Lovefield and pleased with their total check in process including their $50 incidental hold!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d11676687-r476197263-Sleep_Inn_Dallas_Love_Field_Medical_District-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>476197263</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Brand New Hotel - Clean and Welcoming</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel I was greeted by the sweetest lady at the front desk. The entire stay was welcoming, everything was clean and fresh. The HOT breakfast was wonderful, waffles, scrambled eggs, and sausage! They even made my eggs to order! It had a nice convenient location and was much better quality for the price point and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephanie G, General Manager at Sleep Inn Dallas Love Field-Medical District, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel I was greeted by the sweetest lady at the front desk. The entire stay was welcoming, everything was clean and fresh. The HOT breakfast was wonderful, waffles, scrambled eggs, and sausage! They even made my eggs to order! It had a nice convenient location and was much better quality for the price point and location.More</t>
   </si>
 </sst>
 </file>
@@ -1306,93 +1867,83 @@
       <c r="A2" t="n">
         <v>65686</v>
       </c>
-      <c r="B2" t="n">
-        <v>164319</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65686</v>
       </c>
-      <c r="B3" t="n">
-        <v>17391</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -1407,13 +1958,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1424,61 +1975,53 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65686</v>
       </c>
-      <c r="B4" t="n">
-        <v>48339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1489,250 +2032,250 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65686</v>
       </c>
-      <c r="B5" t="n">
-        <v>1928</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65686</v>
       </c>
-      <c r="B6" t="n">
-        <v>177449</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>69</v>
+      </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65686</v>
       </c>
-      <c r="B7" t="n">
-        <v>99352</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65686</v>
       </c>
-      <c r="B8" t="n">
-        <v>177450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1743,54 +2286,58 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65686</v>
       </c>
-      <c r="B9" t="n">
-        <v>177451</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1800,57 +2347,57 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65686</v>
       </c>
-      <c r="B10" t="n">
-        <v>3302</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
-      </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1861,57 +2408,57 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65686</v>
       </c>
-      <c r="B11" t="n">
-        <v>85802</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>121</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1922,197 +2469,177 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" t="s">
-        <v>124</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65686</v>
       </c>
-      <c r="B12" t="n">
-        <v>9048</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>120</v>
       </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>131</v>
-      </c>
-      <c r="X12" t="s">
-        <v>132</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65686</v>
       </c>
-      <c r="B13" t="n">
-        <v>177452</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" t="s">
-        <v>124</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65686</v>
       </c>
-      <c r="B14" t="n">
-        <v>2413</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2123,138 +2650,126 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65686</v>
       </c>
-      <c r="B15" t="n">
-        <v>91040</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>88</v>
-      </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" t="s">
-        <v>155</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65686</v>
       </c>
-      <c r="B16" t="n">
-        <v>177453</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2262,121 +2777,111 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65686</v>
       </c>
-      <c r="B17" t="n">
-        <v>9510</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65686</v>
       </c>
-      <c r="B18" t="n">
-        <v>177454</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2387,191 +2892,177 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>177</v>
-      </c>
-      <c r="X18" t="s">
-        <v>178</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65686</v>
       </c>
-      <c r="B19" t="n">
-        <v>177455</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
         <v>173</v>
       </c>
-      <c r="K19" t="s">
-        <v>183</v>
-      </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>177</v>
-      </c>
-      <c r="X19" t="s">
-        <v>178</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65686</v>
       </c>
-      <c r="B20" t="n">
-        <v>177456</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>153</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>193</v>
-      </c>
-      <c r="X20" t="s">
-        <v>194</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65686</v>
       </c>
-      <c r="B21" t="n">
-        <v>177457</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2585,472 +3076,2398 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65686</v>
       </c>
-      <c r="B22" t="n">
-        <v>177458</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65686</v>
       </c>
-      <c r="B23" t="n">
-        <v>177459</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>215</v>
-      </c>
-      <c r="X23" t="s">
-        <v>216</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65686</v>
       </c>
-      <c r="B24" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>215</v>
-      </c>
-      <c r="X24" t="s">
-        <v>216</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65686</v>
       </c>
-      <c r="B25" t="n">
-        <v>177460</v>
-      </c>
-      <c r="C25" t="s">
-        <v>225</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
-      <c r="N25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O25" t="s">
-        <v>89</v>
-      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>231</v>
-      </c>
-      <c r="X25" t="s">
-        <v>232</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65686</v>
       </c>
-      <c r="B26" t="n">
-        <v>177461</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>241</v>
-      </c>
-      <c r="X26" t="s">
-        <v>242</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65686</v>
       </c>
-      <c r="B27" t="n">
-        <v>177462</v>
-      </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
         <v>4</v>
       </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>250</v>
-      </c>
-      <c r="X27" t="s">
-        <v>251</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65686</v>
       </c>
-      <c r="B28" t="n">
-        <v>99352</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>231</v>
+      </c>
+      <c r="X29" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O32" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>253</v>
+      </c>
+      <c r="X32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>246</v>
+      </c>
+      <c r="X33" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>132</v>
+      </c>
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" t="s">
+        <v>169</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>295</v>
+      </c>
+      <c r="X39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>132</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>303</v>
+      </c>
+      <c r="X40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>318</v>
+      </c>
+      <c r="O42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>319</v>
+      </c>
+      <c r="X42" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>319</v>
+      </c>
+      <c r="X43" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>346</v>
+      </c>
+      <c r="X46" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>365</v>
+      </c>
+      <c r="X49" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>345</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>364</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>379</v>
+      </c>
+      <c r="X51" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>364</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>379</v>
+      </c>
+      <c r="X52" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>393</v>
+      </c>
+      <c r="X53" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>401</v>
+      </c>
+      <c r="X54" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>404</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>405</v>
+      </c>
+      <c r="J55" t="s">
+        <v>406</v>
+      </c>
+      <c r="K55" t="s">
+        <v>407</v>
+      </c>
+      <c r="L55" t="s">
+        <v>408</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>409</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>410</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>411</v>
+      </c>
+      <c r="J56" t="s">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s">
+        <v>413</v>
+      </c>
+      <c r="L56" t="s">
+        <v>414</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>415</v>
+      </c>
+      <c r="X56" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>418</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>419</v>
+      </c>
+      <c r="J57" t="s">
+        <v>420</v>
+      </c>
+      <c r="K57" t="s">
+        <v>421</v>
+      </c>
+      <c r="L57" t="s">
+        <v>422</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>423</v>
+      </c>
+      <c r="X57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
         <v>1</v>
       </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>259</v>
-      </c>
-      <c r="X28" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>261</v>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>432</v>
+      </c>
+      <c r="X58" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>432</v>
+      </c>
+      <c r="X59" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65686</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>442</v>
+      </c>
+      <c r="J60" t="s">
+        <v>443</v>
+      </c>
+      <c r="K60" t="s">
+        <v>444</v>
+      </c>
+      <c r="L60" t="s">
+        <v>445</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>431</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>446</v>
+      </c>
+      <c r="X60" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
